--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -80,16 +80,13 @@
     <t>Français</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>Create and verify new webinar</t>
   </si>
   <si>
-    <t>My First Webinar</t>
-  </si>
-  <si>
     <t>You are invited!</t>
+  </si>
+  <si>
+    <t>My First Webinar3</t>
   </si>
 </sst>
 </file>
@@ -480,8 +477,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -493,7 +490,7 @@
     <col min="6" max="6" width="16.5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.5" customWidth="1" collapsed="1"/>
     <col min="8" max="11" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.33203125" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -546,33 +543,33 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7">
-        <v>0.42499999999999999</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>My First Webinar3</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>My First Webinar4</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +117,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,8 +182,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -174,7 +201,9 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,8 +506,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -546,7 +575,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -555,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7">
         <v>6.9444444444444447E-4</v>
@@ -577,19 +606,45 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -84,15 +84,6 @@
   </si>
   <si>
     <t>You are invited!</t>
-  </si>
-  <si>
-    <t>My First Webinar3</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>My First Webinar4</t>
@@ -504,10 +495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -575,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -602,47 +593,6 @@
         <v>17</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.47291666666666665</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
